--- a/docs/ValueSet-NHSDigital-CareSettingType.xlsx
+++ b/docs/ValueSet-NHSDigital-CareSettingType.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NHSDigital-CareSettingType</t>
+    <t>NHSDigital Treatment Function Code</t>
   </si>
   <si>
     <t>Status</t>
